--- a/Comparativas.xlsx
+++ b/Comparativas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\COSAS DE LOS MÁSTER\MÁSTER GRANADA\1 ASIGNATURAS\Arquitectura de Altas Prestaciones para Visión\Trabajo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929EB775-E268-4534-8257-388760B84CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B07CFF-69C0-4C16-B61C-0145D81CACA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D3119F48-305C-4F46-B46A-1588238F9EF3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -84,12 +84,6 @@
     <t>YOLOv11 me</t>
   </si>
   <si>
-    <t>PREDICCIÓN GLOBAL</t>
-  </si>
-  <si>
-    <t>PREDICCIÓN LOCAL</t>
-  </si>
-  <si>
     <t>59.00</t>
   </si>
   <si>
@@ -277,6 +271,12 @@
   </si>
   <si>
     <t xml:space="preserve">Acierto </t>
+  </si>
+  <si>
+    <t>PRECISIÓN ABSOLUTA</t>
+  </si>
+  <si>
+    <t>PRECISIÓN RELATIVA</t>
   </si>
 </sst>
 </file>
@@ -623,19 +623,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -677,16 +667,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -717,34 +698,51 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -799,24 +797,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-ES"/>
-              <a:t>Predicción</a:t>
+              <a:t>Precisión local</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="es-ES" baseline="0"/>
-              <a:t> local</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.34508333333333335"/>
-          <c:y val="2.7777777777777776E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -965,7 +950,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8F094187-BC94-438E-9A7E-FF9250AE8BAA}" type="CELLRANGE">
+                    <a:fld id="{9E10915E-1D8D-4005-941E-DD0ABFC567AD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1004,7 +989,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{580F3CAB-DD2B-4C38-81D3-77DB6694F46F}" type="CELLRANGE">
+                    <a:fld id="{BC3B16AF-9768-4DF2-9B3D-7567D773C19D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1043,7 +1028,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BAC73A79-F394-4A64-9952-A7D9AF2D094F}" type="CELLRANGE">
+                    <a:fld id="{410CB73C-5209-47A9-A11A-BFB5C8516A40}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1082,7 +1067,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B64C651B-8459-4560-81F4-EDDC0BC8EA05}" type="CELLRANGE">
+                    <a:fld id="{83E009C9-6455-49BE-B243-7E6817C2C150}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1121,7 +1106,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B463CA6F-B91D-47A4-974D-7B557E8B6249}" type="CELLRANGE">
+                    <a:fld id="{F602BC52-C3EF-4041-B4D6-331A5FB86DAD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1505,12 +1490,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-ES"/>
-              <a:t>Predicción</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="es-ES" baseline="0"/>
-              <a:t> global</a:t>
+              <a:t>Precisión global</a:t>
             </a:r>
             <a:endParaRPr lang="es-ES"/>
           </a:p>
@@ -1582,7 +1563,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CACB558B-2790-40A4-8999-2F8452D6EFC5}" type="CELLRANGE">
+                    <a:fld id="{941D1F1E-D85A-4926-B227-4473540EA63A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1621,7 +1602,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{54DC2BCE-BD89-4027-B004-E429FD1B589D}" type="CELLRANGE">
+                    <a:fld id="{1347F9EE-0DF2-44F7-AC83-03338614B194}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1652,7 +1633,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="-0.44370261009040535"/>
+                  <c:y val="-0.40666557305336831"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1660,7 +1641,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{363D926E-5D2C-4C8D-88A1-160F41A93D55}" type="CELLRANGE">
+                    <a:fld id="{20C58159-FF1A-4322-8B31-F3C3D1AF3950}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1690,8 +1671,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.0185067526415994E-16"/>
-                  <c:y val="-0.34648038786818314"/>
+                  <c:x val="0"/>
+                  <c:y val="-0.31870261009040535"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1699,7 +1680,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{80FC48E6-FF6F-4591-B733-0703A3DA2D8F}" type="CELLRANGE">
+                    <a:fld id="{F313CE86-9AFB-4EA8-BC95-D543220DBC78}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1729,8 +1710,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="-0.39705234762321379"/>
+                  <c:x val="1.0185067526415994E-16"/>
+                  <c:y val="-0.3553856809565471"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1738,7 +1719,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C265DCC2-78A0-4846-9186-EA759E3DB607}" type="CELLRANGE">
+                    <a:fld id="{B60F1DB8-3E85-4A91-B61A-A80B8755E1CE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1977,6 +1958,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Modelos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2042,6 +2078,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Imágenes / Segundo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9444444444444445E-2"/>
+              <c:y val="0.24578703703703703"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3648,7 +3747,7 @@
   <dimension ref="B1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3663,589 +3762,588 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="2"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="26" t="s">
-        <v>56</v>
+      <c r="H2" s="19" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>14</v>
+      <c r="B3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>48</v>
+      <c r="B4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>16</v>
+      <c r="B5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>58</v>
+      <c r="B6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>18</v>
+      <c r="B7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="28" t="s">
+      <c r="B8" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>13</v>
+      <c r="G8" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="43"/>
+      <c r="B9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="35"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>52</v>
+      <c r="B10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>21</v>
+      <c r="B11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>61</v>
+      <c r="B12" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>54</v>
+      <c r="B13" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>24</v>
+      <c r="B14" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>10</v>
+      <c r="B15" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>25</v>
+      <c r="B16" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>62</v>
+      <c r="B17" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>27</v>
+      <c r="B18" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>12</v>
+      <c r="B19" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>11</v>
+      <c r="B20" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="28" t="s">
+      <c r="B21" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>63</v>
+      <c r="F21" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="H22" s="29" t="s">
-        <v>50</v>
+      <c r="B22" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D24" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20"/>
+      <c r="D24" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="41"/>
     </row>
     <row r="25" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="17" t="s">
-        <v>56</v>
+      <c r="H25" s="13" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D26" s="6" cm="1">
+      <c r="D26" s="2" cm="1">
         <f t="array" ref="D26">(SUMPRODUCT(--(B3:B22=D3:D22))/20)</f>
         <v>0.35</v>
       </c>
-      <c r="E26" s="7" cm="1">
+      <c r="E26" s="3" cm="1">
         <f t="array" ref="E26">(SUMPRODUCT(--(B3:B22=E3:E22))/20)</f>
         <v>0</v>
       </c>
-      <c r="F26" s="8" cm="1">
+      <c r="F26" s="4" cm="1">
         <f t="array" ref="F26">(SUMPRODUCT(--(B3:B22=F3:F22))/20)</f>
         <v>0.4</v>
       </c>
-      <c r="G26" s="7" cm="1">
+      <c r="G26" s="3" cm="1">
         <f t="array" ref="G26">(SUMPRODUCT(--(B3:B22=G3:G22))/20)</f>
         <v>0.5</v>
       </c>
-      <c r="H26" s="9" cm="1">
+      <c r="H26" s="5" cm="1">
         <f t="array" ref="H26">(SUMPRODUCT(--(B3:B22=H3:H22))/20)</f>
         <v>0.6</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D28" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="20"/>
+      <c r="D28" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="41"/>
     </row>
     <row r="29" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="17" t="s">
-        <v>56</v>
+      <c r="H29" s="13" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D30" s="10" cm="1">
+      <c r="D30" s="6" cm="1">
         <f t="array" ref="D30">75/SUM(LEN(B3:B22))</f>
         <v>0.66371681415929207</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="7">
         <v>0</v>
       </c>
-      <c r="F30" s="12" cm="1">
+      <c r="F30" s="8" cm="1">
         <f t="array" ref="F30">94/SUM(LEN(B3:B22))</f>
         <v>0.83185840707964598</v>
       </c>
-      <c r="G30" s="11" cm="1">
+      <c r="G30" s="7" cm="1">
         <f t="array" ref="G30">102/SUM(LEN(B3:B22))</f>
         <v>0.90265486725663713</v>
       </c>
-      <c r="H30" s="13" cm="1">
+      <c r="H30" s="9" cm="1">
         <f t="array" ref="H30">104/SUM(LEN(B3:B22))</f>
         <v>0.92035398230088494</v>
       </c>
@@ -4253,208 +4351,208 @@
     <row r="31" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C32" s="1"/>
-      <c r="D32" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="20"/>
+      <c r="D32" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="41"/>
     </row>
     <row r="33" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C33" s="1"/>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="16" t="s">
+      <c r="F33" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="17" t="s">
+      <c r="H33" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="33">
+      <c r="C34" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="26">
         <v>6.33</v>
       </c>
-      <c r="E34" s="34">
+      <c r="E34" s="27">
         <v>3.44</v>
       </c>
-      <c r="F34" s="35">
+      <c r="F34" s="28">
         <v>0.88</v>
       </c>
-      <c r="G34" s="34">
+      <c r="G34" s="27">
         <v>1.03</v>
       </c>
-      <c r="H34" s="36">
+      <c r="H34" s="29">
         <v>0.85</v>
       </c>
     </row>
     <row r="35" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="37">
+      <c r="C35" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="30">
         <v>0.32</v>
       </c>
-      <c r="E35" s="38">
+      <c r="E35" s="31">
         <v>0.17</v>
       </c>
-      <c r="F35" s="39">
+      <c r="F35" s="32">
         <v>0.04</v>
       </c>
-      <c r="G35" s="38">
+      <c r="G35" s="31">
         <v>0.05</v>
       </c>
-      <c r="H35" s="40">
+      <c r="H35" s="33">
         <v>0.04</v>
       </c>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C38" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" s="42">
+      <c r="C38" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="34">
         <f>1/D35</f>
         <v>3.125</v>
       </c>
-      <c r="E38" s="42">
+      <c r="E38" s="34">
         <f t="shared" ref="E38:H38" si="0">1/E35</f>
         <v>5.8823529411764701</v>
       </c>
-      <c r="F38" s="42">
+      <c r="F38" s="34">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="G38" s="42">
+      <c r="G38" s="34">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H38" s="42">
+      <c r="H38" s="34">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C39" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" s="42">
+      <c r="C39" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="34">
         <f>D38*D30</f>
         <v>2.0741150442477876</v>
       </c>
-      <c r="E39" s="42">
+      <c r="E39" s="34">
         <f t="shared" ref="E39:H39" si="1">E38*E30</f>
         <v>0</v>
       </c>
-      <c r="F39" s="42">
+      <c r="F39" s="34">
         <f t="shared" si="1"/>
         <v>20.79646017699115</v>
       </c>
-      <c r="G39" s="42">
+      <c r="G39" s="34">
         <f t="shared" si="1"/>
         <v>18.053097345132741</v>
       </c>
-      <c r="H39" s="42">
+      <c r="H39" s="34">
         <f t="shared" si="1"/>
         <v>23.008849557522122</v>
       </c>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C40" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="41">
+      <c r="C40" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="34">
         <f>D38-D39</f>
         <v>1.0508849557522124</v>
       </c>
-      <c r="E40" s="41">
+      <c r="E40" s="34">
         <f t="shared" ref="E40:H40" si="2">E38-E39</f>
         <v>5.8823529411764701</v>
       </c>
-      <c r="F40" s="41">
+      <c r="F40" s="34">
         <f t="shared" si="2"/>
         <v>4.2035398230088497</v>
       </c>
-      <c r="G40" s="41">
+      <c r="G40" s="34">
         <f t="shared" si="2"/>
         <v>1.9469026548672588</v>
       </c>
-      <c r="H40" s="41">
+      <c r="H40" s="34">
         <f t="shared" si="2"/>
         <v>1.9911504424778776</v>
       </c>
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C42" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D42" s="41">
+      <c r="C42" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="34">
         <f>D38*D26</f>
         <v>1.09375</v>
       </c>
-      <c r="E42" s="41">
+      <c r="E42" s="34">
         <f t="shared" ref="E42:H42" si="3">E38*E26</f>
         <v>0</v>
       </c>
-      <c r="F42" s="41">
+      <c r="F42" s="34">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="G42" s="41">
+      <c r="G42" s="34">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="H42" s="41">
+      <c r="H42" s="34">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C43" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" s="41">
+      <c r="C43" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="34">
         <f>D38-D42</f>
         <v>2.03125</v>
       </c>
-      <c r="E43" s="41">
+      <c r="E43" s="34">
         <f t="shared" ref="E43:H43" si="4">E38-E42</f>
         <v>5.8823529411764701</v>
       </c>
-      <c r="F43" s="41">
+      <c r="F43" s="34">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="G43" s="41">
+      <c r="G43" s="34">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="H43" s="41">
+      <c r="H43" s="34">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>

--- a/Comparativas.xlsx
+++ b/Comparativas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\COSAS DE LOS MÁSTER\MÁSTER GRANADA\1 ASIGNATURAS\Arquitectura de Altas Prestaciones para Visión\Trabajo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B07CFF-69C0-4C16-B61C-0145D81CACA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2830ED7-A847-4C5F-9F3B-F5C66126700E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D3119F48-305C-4F46-B46A-1588238F9EF3}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="72">
   <si>
     <t>VALOR REAL</t>
   </si>
@@ -72,18 +72,9 @@
     <t>EasyOCR</t>
   </si>
   <si>
-    <t>YOlOv11 n</t>
-  </si>
-  <si>
     <t>PREDICCIONES</t>
   </si>
   <si>
-    <t>YOLOv11 pt</t>
-  </si>
-  <si>
-    <t>YOLOv11 me</t>
-  </si>
-  <si>
     <t>59.00</t>
   </si>
   <si>
@@ -222,9 +213,6 @@
     <t>-08.01</t>
   </si>
   <si>
-    <t>YOLOv11 pt-mt</t>
-  </si>
-  <si>
     <t>000263-0</t>
   </si>
   <si>
@@ -277,6 +265,15 @@
   </si>
   <si>
     <t>PRECISIÓN RELATIVA</t>
+  </si>
+  <si>
+    <t>YOlOv8 n</t>
+  </si>
+  <si>
+    <t>YOLOv8 pt</t>
+  </si>
+  <si>
+    <t>YOLOv8 me</t>
   </si>
 </sst>
 </file>
@@ -344,7 +341,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -379,26 +376,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -623,94 +600,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -719,29 +687,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -879,13 +844,13 @@
                   <c:v>EasyOCR</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>YOlOv11 n</c:v>
+                  <c:v>YOlOv8 n</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>YOLOv11 pt</c:v>
+                  <c:v>YOLOv8 pt</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>YOLOv11 me</c:v>
+                  <c:v>YOLOv8 me</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -950,7 +915,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9E10915E-1D8D-4005-941E-DD0ABFC567AD}" type="CELLRANGE">
+                    <a:fld id="{7174BF73-F597-40A2-B911-6FD165B01F7D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -989,7 +954,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BC3B16AF-9768-4DF2-9B3D-7567D773C19D}" type="CELLRANGE">
+                    <a:fld id="{2EBD5AB5-EC2C-4E26-B270-C6A110A4AD7B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1028,7 +993,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{410CB73C-5209-47A9-A11A-BFB5C8516A40}" type="CELLRANGE">
+                    <a:fld id="{68E2A0D2-0656-4CD1-A1B4-A907CD5EB94E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1067,7 +1032,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{83E009C9-6455-49BE-B243-7E6817C2C150}" type="CELLRANGE">
+                    <a:fld id="{ADC9307B-9CF6-4262-A7AF-2282913303AF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1106,7 +1071,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F602BC52-C3EF-4041-B4D6-331A5FB86DAD}" type="CELLRANGE">
+                    <a:fld id="{5CE696EA-90DE-4BD6-9825-8338863FBA15}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1188,13 +1153,13 @@
                   <c:v>EasyOCR</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>YOlOv11 n</c:v>
+                  <c:v>YOlOv8 n</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>YOLOv11 pt</c:v>
+                  <c:v>YOLOv8 pt</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>YOLOv11 me</c:v>
+                  <c:v>YOLOv8 me</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1563,7 +1528,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{941D1F1E-D85A-4926-B227-4473540EA63A}" type="CELLRANGE">
+                    <a:fld id="{D4DB882D-9082-4762-967C-C690887AC16F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1602,7 +1567,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1347F9EE-0DF2-44F7-AC83-03338614B194}" type="CELLRANGE">
+                    <a:fld id="{E8A54612-F9A9-41FB-96A2-2DA5AFCACB9A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1641,7 +1606,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{20C58159-FF1A-4322-8B31-F3C3D1AF3950}" type="CELLRANGE">
+                    <a:fld id="{63B25BFD-CFA0-4AA1-ABF7-A1EED5A74CAC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1680,7 +1645,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F313CE86-9AFB-4EA8-BC95-D543220DBC78}" type="CELLRANGE">
+                    <a:fld id="{3786D6A6-DB81-4C45-A37C-3502CD2246BD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1719,7 +1684,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B60F1DB8-3E85-4A91-B61A-A80B8755E1CE}" type="CELLRANGE">
+                    <a:fld id="{6FC319FC-9200-4496-8AE5-3BA53B5D3DCF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1801,13 +1766,13 @@
                   <c:v>EasyOCR</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>YOlOv11 n</c:v>
+                  <c:v>YOlOv8 n</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>YOLOv11 pt</c:v>
+                  <c:v>YOLOv8 pt</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>YOLOv11 pt-mt</c:v>
+                  <c:v>YOLOv8 me</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1896,13 +1861,13 @@
                   <c:v>EasyOCR</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>YOlOv11 n</c:v>
+                  <c:v>YOlOv8 n</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>YOLOv11 pt</c:v>
+                  <c:v>YOLOv8 pt</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>YOLOv11 pt-mt</c:v>
+                  <c:v>YOLOv8 me</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3746,8 +3711,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3762,504 +3727,504 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
+      <c r="D1" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>54</v>
+      <c r="F2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>12</v>
+      <c r="B3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>46</v>
+      <c r="B4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>14</v>
+      <c r="B5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>56</v>
+      <c r="B6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>16</v>
+      <c r="B7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>11</v>
+      <c r="B8" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="35"/>
+      <c r="B9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>50</v>
+      <c r="B10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>19</v>
+      <c r="B11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>59</v>
+      <c r="B12" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>52</v>
+      <c r="B13" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="21" t="s">
+      <c r="B14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>22</v>
+      <c r="G14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>8</v>
+      <c r="B15" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>23</v>
+      <c r="B16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>60</v>
+      <c r="B17" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>25</v>
+      <c r="B18" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>10</v>
+      <c r="B19" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="21" t="s">
+      <c r="B20" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>9</v>
+      <c r="F20" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="21" t="s">
+      <c r="B21" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>61</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>48</v>
+      <c r="B22" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D24" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="41"/>
+      <c r="D24" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="37"/>
     </row>
     <row r="25" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D25" s="10" t="s">
@@ -4269,13 +4234,13 @@
         <v>3</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4302,29 +4267,29 @@
     </row>
     <row r="27" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D28" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="41"/>
+      <c r="D28" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="37"/>
     </row>
     <row r="29" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>3</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4351,13 +4316,13 @@
     <row r="31" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C32" s="1"/>
-      <c r="D32" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="41"/>
+      <c r="D32" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="37"/>
     </row>
     <row r="33" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C33" s="1"/>
@@ -4368,191 +4333,191 @@
         <v>3</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C34" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="26">
+        <v>59</v>
+      </c>
+      <c r="D34" s="22">
         <v>6.33</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="23">
         <v>3.44</v>
       </c>
-      <c r="F34" s="28">
+      <c r="F34" s="24">
         <v>0.88</v>
       </c>
-      <c r="G34" s="27">
+      <c r="G34" s="23">
         <v>1.03</v>
       </c>
-      <c r="H34" s="29">
+      <c r="H34" s="25">
         <v>0.85</v>
       </c>
     </row>
     <row r="35" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C35" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" s="30">
+        <v>60</v>
+      </c>
+      <c r="D35" s="26">
         <v>0.32</v>
       </c>
-      <c r="E35" s="31">
+      <c r="E35" s="27">
         <v>0.17</v>
       </c>
-      <c r="F35" s="32">
+      <c r="F35" s="28">
         <v>0.04</v>
       </c>
-      <c r="G35" s="31">
+      <c r="G35" s="27">
         <v>0.05</v>
       </c>
-      <c r="H35" s="33">
+      <c r="H35" s="29">
         <v>0.04</v>
       </c>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C38" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="34">
+      <c r="C38" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="30">
         <f>1/D35</f>
         <v>3.125</v>
       </c>
-      <c r="E38" s="34">
+      <c r="E38" s="30">
         <f t="shared" ref="E38:H38" si="0">1/E35</f>
         <v>5.8823529411764701</v>
       </c>
-      <c r="F38" s="34">
+      <c r="F38" s="30">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="G38" s="34">
+      <c r="G38" s="30">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H38" s="34">
+      <c r="H38" s="30">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C39" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="34">
+      <c r="C39" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="30">
         <f>D38*D30</f>
         <v>2.0741150442477876</v>
       </c>
-      <c r="E39" s="34">
+      <c r="E39" s="30">
         <f t="shared" ref="E39:H39" si="1">E38*E30</f>
         <v>0</v>
       </c>
-      <c r="F39" s="34">
+      <c r="F39" s="30">
         <f t="shared" si="1"/>
         <v>20.79646017699115</v>
       </c>
-      <c r="G39" s="34">
+      <c r="G39" s="30">
         <f t="shared" si="1"/>
         <v>18.053097345132741</v>
       </c>
-      <c r="H39" s="34">
+      <c r="H39" s="30">
         <f t="shared" si="1"/>
         <v>23.008849557522122</v>
       </c>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C40" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" s="34">
+      <c r="C40" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="30">
         <f>D38-D39</f>
         <v>1.0508849557522124</v>
       </c>
-      <c r="E40" s="34">
+      <c r="E40" s="30">
         <f t="shared" ref="E40:H40" si="2">E38-E39</f>
         <v>5.8823529411764701</v>
       </c>
-      <c r="F40" s="34">
+      <c r="F40" s="30">
         <f t="shared" si="2"/>
         <v>4.2035398230088497</v>
       </c>
-      <c r="G40" s="34">
+      <c r="G40" s="30">
         <f t="shared" si="2"/>
         <v>1.9469026548672588</v>
       </c>
-      <c r="H40" s="34">
+      <c r="H40" s="30">
         <f t="shared" si="2"/>
         <v>1.9911504424778776</v>
       </c>
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C42" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="34">
+      <c r="C42" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="30">
         <f>D38*D26</f>
         <v>1.09375</v>
       </c>
-      <c r="E42" s="34">
+      <c r="E42" s="30">
         <f t="shared" ref="E42:H42" si="3">E38*E26</f>
         <v>0</v>
       </c>
-      <c r="F42" s="34">
+      <c r="F42" s="30">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="G42" s="34">
+      <c r="G42" s="30">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="H42" s="34">
+      <c r="H42" s="30">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C43" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="D43" s="34">
+      <c r="C43" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="30">
         <f>D38-D42</f>
         <v>2.03125</v>
       </c>
-      <c r="E43" s="34">
+      <c r="E43" s="30">
         <f t="shared" ref="E43:H43" si="4">E38-E42</f>
         <v>5.8823529411764701</v>
       </c>
-      <c r="F43" s="34">
+      <c r="F43" s="30">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="G43" s="34">
+      <c r="G43" s="30">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="H43" s="34">
+      <c r="H43" s="30">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>

--- a/Comparativas.xlsx
+++ b/Comparativas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\COSAS DE LOS MÁSTER\MÁSTER GRANADA\1 ASIGNATURAS\Arquitectura de Altas Prestaciones para Visión\Trabajo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2830ED7-A847-4C5F-9F3B-F5C66126700E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA021BC6-9472-4031-8584-ABC15FA5F1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D3119F48-305C-4F46-B46A-1588238F9EF3}"/>
   </bookViews>
@@ -267,13 +267,13 @@
     <t>PRECISIÓN RELATIVA</t>
   </si>
   <si>
-    <t>YOlOv8 n</t>
+    <t>YOLOv8n</t>
   </si>
   <si>
     <t>YOLOv8 pt</t>
   </si>
   <si>
-    <t>YOLOv8 me</t>
+    <t>YOLOv8 pt-mt</t>
   </si>
 </sst>
 </file>
@@ -844,13 +844,13 @@
                   <c:v>EasyOCR</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>YOlOv8 n</c:v>
+                  <c:v>YOLOv8n</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>YOLOv8 pt</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>YOLOv8 me</c:v>
+                  <c:v>YOLOv8 pt-mt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -915,7 +915,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7174BF73-F597-40A2-B911-6FD165B01F7D}" type="CELLRANGE">
+                    <a:fld id="{06128626-0B43-4B67-BDE7-10FA076D38C8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -954,7 +954,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2EBD5AB5-EC2C-4E26-B270-C6A110A4AD7B}" type="CELLRANGE">
+                    <a:fld id="{04F911E2-AA3C-42C1-8CA0-17363B99CEF2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -993,7 +993,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{68E2A0D2-0656-4CD1-A1B4-A907CD5EB94E}" type="CELLRANGE">
+                    <a:fld id="{5A1514BA-CA8E-4906-842A-EB4E530117A9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1032,7 +1032,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ADC9307B-9CF6-4262-A7AF-2282913303AF}" type="CELLRANGE">
+                    <a:fld id="{F5F4BB4C-048A-4F02-B83C-6E341BCB14D8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1071,7 +1071,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5CE696EA-90DE-4BD6-9825-8338863FBA15}" type="CELLRANGE">
+                    <a:fld id="{CC0732AE-85CA-4D1B-B689-E21D141A7B46}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1153,13 +1153,13 @@
                   <c:v>EasyOCR</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>YOlOv8 n</c:v>
+                  <c:v>YOLOv8n</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>YOLOv8 pt</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>YOLOv8 me</c:v>
+                  <c:v>YOLOv8 pt-mt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1528,7 +1528,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D4DB882D-9082-4762-967C-C690887AC16F}" type="CELLRANGE">
+                    <a:fld id="{DC822F86-4F9D-4914-9540-B29C1732B05C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1567,7 +1567,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E8A54612-F9A9-41FB-96A2-2DA5AFCACB9A}" type="CELLRANGE">
+                    <a:fld id="{3D45FEF5-10AA-48A7-B161-352A2468270B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1598,7 +1598,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="-0.40666557305336831"/>
+                  <c:y val="-0.44370261009040535"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1606,7 +1606,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{63B25BFD-CFA0-4AA1-ABF7-A1EED5A74CAC}" type="CELLRANGE">
+                    <a:fld id="{F06EC020-1AA7-4072-81C9-EA07EFD2FE5E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1636,8 +1636,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="-0.31870261009040535"/>
+                  <c:x val="-1.0185067526415994E-16"/>
+                  <c:y val="-0.34648038786818314"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1645,7 +1645,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3786D6A6-DB81-4C45-A37C-3502CD2246BD}" type="CELLRANGE">
+                    <a:fld id="{865429F4-E60A-4C02-99FA-D4A35AE9F206}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1675,8 +1675,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.0185067526415994E-16"/>
-                  <c:y val="-0.3553856809565471"/>
+                  <c:x val="0"/>
+                  <c:y val="-0.39705234762321379"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1684,7 +1684,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6FC319FC-9200-4496-8AE5-3BA53B5D3DCF}" type="CELLRANGE">
+                    <a:fld id="{9439858F-6343-40CF-9D16-3CE9E6E62A51}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1766,13 +1766,13 @@
                   <c:v>EasyOCR</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>YOlOv8 n</c:v>
+                  <c:v>YOLOv8n</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>YOLOv8 pt</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>YOLOv8 me</c:v>
+                  <c:v>YOLOv8 pt-mt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1861,13 +1861,13 @@
                   <c:v>EasyOCR</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>YOlOv8 n</c:v>
+                  <c:v>YOLOv8n</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>YOLOv8 pt</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>YOLOv8 me</c:v>
+                  <c:v>YOLOv8 pt-mt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3711,8 +3711,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
